--- a/project/digiverifier_frontend/src/assets/docs/candidate.xlsx
+++ b/project/digiverifier_frontend/src/assets/docs/candidate.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRINCE~1\AppData\Local\Temp\scp19769\home\bharani\Digiverifier-New\Digiverifier-New_techM\project\digiverifier_frontend\src\assets\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_EF8301DBCF24BCCACCE1C14B1712DE68F09C7D83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A4923E7-6E5B-40B0-A33C-69E96EEA3785}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6015" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Candidate Name (mandatory)</t>
   </si>
@@ -32,43 +42,58 @@
     <t>Contact number</t>
   </si>
   <si>
+    <t>Candidate Mail id (mandatory)</t>
+  </si>
+  <si>
+    <t>Applicant Id</t>
+  </si>
+  <si>
+    <t>No. of years of experience</t>
+  </si>
+  <si>
     <t>CC email</t>
   </si>
   <si>
-    <t>No. of years of experience</t>
-  </si>
-  <si>
-    <t>Candidate Name</t>
-  </si>
-  <si>
-    <t>candidate@email.com</t>
-  </si>
-  <si>
-    <t>cc@mail.com,cc2@mail.com</t>
-  </si>
-  <si>
-    <t>Candidate Mail id (mandatory)</t>
+    <t>ShowValidation</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>Uan</t>
+  </si>
+  <si>
+    <t>candidateName</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,11 +115,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -102,6 +130,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,7 +226,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +238,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -159,9 +255,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -189,14 +285,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -224,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,61 +505,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>9876543210</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{4CAFC8F9-FE83-4AA4-8D20-CCC2580C3168}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>